--- a/prueba_Paula.xlsx
+++ b/prueba_Paula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ED35A9-8AB6-40EA-A825-91D150A3022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A242A5BB-C782-42C1-B310-23B2FB67E7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>ESTUDIANTE</t>
   </si>
@@ -36,9 +36,6 @@
     <t>CLAUSTRO</t>
   </si>
   <si>
-    <t>rol</t>
-  </si>
-  <si>
     <t>PROYECTOS</t>
   </si>
   <si>
@@ -85,12 +82,6 @@
     </r>
   </si>
   <si>
-    <t>nombre_profesor</t>
-  </si>
-  <si>
-    <t>apellido_profesor</t>
-  </si>
-  <si>
     <t>nombre_alumno</t>
   </si>
   <si>
@@ -165,7 +156,185 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ID_profesor </t>
+      <t>ID_estudiante</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ID_estudiante </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ID_promocion </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ID_promocion</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ID_campus</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ID_campus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ID_vertical </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ID_modlidad </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ID_modalidad </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ID_vertical </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FK </t>
+    </r>
+  </si>
+  <si>
+    <t>LI_rol</t>
+  </si>
+  <si>
+    <t>TA_rol</t>
+  </si>
+  <si>
+    <t>ROLES</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>ID_docente PK</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ID_docente </t>
     </r>
     <r>
       <rPr>
@@ -180,8 +349,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>ID_estudiante</t>
+    <t>nombre_docente</t>
+  </si>
+  <si>
+    <t>apellido_docente</t>
+  </si>
+  <si>
+    <r>
+      <t>ID_LI</t>
     </r>
     <r>
       <rPr>
@@ -197,39 +372,23 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ID_estudiante </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ID_promocion </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ID_promocion</t>
+      <t xml:space="preserve">ID_TA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ID_LI</t>
     </r>
     <r>
       <rPr>
@@ -244,107 +403,50 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>ID_campus</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> FK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ID_campus </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ID_vertical </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ID_modlidad </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ID_modalidad </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ID_vertical </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FK </t>
-    </r>
+    <t>pepe</t>
+  </si>
+  <si>
+    <t>garcia</t>
+  </si>
+  <si>
+    <t>maria</t>
+  </si>
+  <si>
+    <t>paula</t>
+  </si>
+  <si>
+    <t>lopez</t>
+  </si>
+  <si>
+    <t>pl@gmail.com</t>
+  </si>
+  <si>
+    <t>madrid</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>dfgh63</t>
+  </si>
+  <si>
+    <t>fundamentals</t>
+  </si>
+  <si>
+    <t>apto</t>
+  </si>
+  <si>
+    <t>FULL TIME</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,8 +469,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,12 +505,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -459,8 +563,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3994F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -483,36 +617,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF3994F"/>
+      <color rgb="FFFF3300"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF99FF"/>
@@ -793,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,191 +961,535 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>25</v>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>9809</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1">
+        <v>123</v>
+      </c>
+      <c r="G4" s="1">
+        <v>456</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="14" t="s">
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>12345</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1">
+        <v>123</v>
+      </c>
+      <c r="F9" s="1">
+        <v>456</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9809</v>
+      </c>
+      <c r="F14" s="1">
+        <v>123</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>456</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>123</v>
+      </c>
+      <c r="C24" s="22">
+        <v>45170</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>12345</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I30" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>12345</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>34633</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+      <c r="Q35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{732F6709-6381-4B2A-B7E9-A1548C9D27BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>